--- a/day1/NOPCOMMERCE_TEST_PLAN/Nopcommerce.xlsx
+++ b/day1/NOPCOMMERCE_TEST_PLAN/Nopcommerce.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>Module</t>
   </si>
@@ -179,24 +179,6 @@
 </t>
   </si>
   <si>
-    <t>TP_NOPCOMM_SEARCH_STORE_005</t>
-  </si>
-  <si>
-    <t>To verify that the "Search Store" functionality correctly filters or finds products and content relevant to a selected store (in case of multi-store deployments), or behaves gracefully in the absence of multiple stores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Search input field
-• Store selection dropdown (if present
-• Search result
-• “No products found” message
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Internal APIs for store mapping
-• Admin store creation functionality
-</t>
-  </si>
-  <si>
     <t>TP_NOPCOMM_WISHLIST_006</t>
   </si>
   <si>
@@ -323,17 +305,6 @@
     <t>whishlist</t>
   </si>
   <si>
-    <t>search store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Store name search
-• Search field accepting valid/invalid store keyword
-• Navigate to selected store or related page
-• Response where store doesn’t exist
-• Default behavior with only one store
-</t>
-  </si>
-  <si>
     <t>Navigate to Electronics, verify presence of items like 
 apple smartphone".</t>
   </si>
@@ -345,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,18 +346,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,44 +440,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -885,7 +866,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>36</v>
@@ -903,7 +884,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>16</v>
@@ -921,24 +902,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="51" customHeight="1">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="57.5" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>71</v>
+      <c r="E4" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>14</v>
@@ -956,30 +937,30 @@
         <v>17</v>
       </c>
       <c r="L4" s="10">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="57.5" customHeight="1">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="59" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="D5" s="7" t="s">
         <v>47</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>14</v>
@@ -997,30 +978,30 @@
         <v>17</v>
       </c>
       <c r="L5" s="10">
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="59" customHeight="1">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="102.5">
       <c r="A6" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="18" t="s">
         <v>53</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>14</v>
@@ -1038,7 +1019,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="10">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>18</v>
@@ -1046,22 +1027,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="102.5">
       <c r="A7" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>55</v>
       </c>
+      <c r="C7" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="D7" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>14</v>
@@ -1079,30 +1060,30 @@
         <v>17</v>
       </c>
       <c r="L7" s="10">
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="102.5">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>63</v>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>14</v>
@@ -1120,30 +1101,30 @@
         <v>17</v>
       </c>
       <c r="L8" s="10">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="44.5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>72</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>14</v>
@@ -1154,59 +1135,30 @@
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="10">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="44.5">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="10">
-        <v>45903</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>18</v>
-      </c>
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="18.5">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" s="8"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="6"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="18.5">
       <c r="A11"/>
@@ -1220,21 +1172,19 @@
       <c r="J11" s="6"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="18.5">
-      <c r="A12"/>
-      <c r="B12"/>
+    <row r="12" spans="1:13" ht="50" customHeight="1">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12"/>
-      <c r="F12"/>
       <c r="G12" s="8"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="11"/>
       <c r="J12" s="6"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" ht="50" customHeight="1">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="59" customHeight="1">
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
       <c r="G13" s="8"/>
       <c r="H13" s="4"/>
       <c r="I13" s="11"/>
@@ -1243,8 +1193,9 @@
       <c r="L13" s="12"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" ht="59" customHeight="1">
+    <row r="14" spans="1:13" ht="47" customHeight="1">
       <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="G14" s="8"/>
       <c r="H14" s="4"/>
       <c r="I14" s="11"/>
@@ -1253,17 +1204,6 @@
       <c r="L14" s="12"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" ht="47" customHeight="1">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
